--- a/REGISTER OF WAGES/format_input_data_book.xlsx
+++ b/REGISTER OF WAGES/format_input_data_book.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="10695" windowHeight="3885"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="10695" windowHeight="3885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Desig.</t>
   </si>
@@ -54,6 +55,99 @@
   </si>
   <si>
     <t>Name of employee</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>rakhi</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>asst.</t>
+  </si>
+  <si>
+    <t>helper</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>Name of Employees</t>
+  </si>
+  <si>
+    <t>Working Days</t>
+  </si>
+  <si>
+    <t>Holi-days</t>
+  </si>
+  <si>
+    <t>Total Days</t>
+  </si>
+  <si>
+    <t>Rate of Basic Wages</t>
+  </si>
+  <si>
+    <t>Rate of V.D.A</t>
+  </si>
+  <si>
+    <t>Total Rate of Wages/Salary</t>
+  </si>
+  <si>
+    <t>PF wages</t>
+  </si>
+  <si>
+    <t>Esi Wages</t>
+  </si>
+  <si>
+    <t>O.T wages</t>
+  </si>
+  <si>
+    <t>Total Amt. Payable</t>
+  </si>
+  <si>
+    <t>P.F</t>
+  </si>
+  <si>
+    <t>Family Pension</t>
+  </si>
+  <si>
+    <t>Total P.F</t>
+  </si>
+  <si>
+    <t>E.S.I contribution (.75%)</t>
+  </si>
+  <si>
+    <t>Advance/Loan/I.T</t>
+  </si>
+  <si>
+    <t>Total Deductions</t>
+  </si>
+  <si>
+    <t>Balance Paid</t>
+  </si>
+  <si>
+    <t>Signature or Thumb Impression of Employee</t>
+  </si>
+  <si>
+    <t>5,8,11,15,1,19</t>
+  </si>
+  <si>
+    <t>deepak</t>
   </si>
 </sst>
 </file>
@@ -385,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,6 +491,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -433,8 +528,423 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>1500</v>
+      </c>
+      <c r="J2">
+        <v>1150</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>62.5</v>
+      </c>
+      <c r="M2">
+        <v>1212.5</v>
+      </c>
+      <c r="N2">
+        <v>95.8333333333333</v>
+      </c>
+      <c r="O2">
+        <v>19.1666666666666</v>
+      </c>
+      <c r="P2">
+        <v>115</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>115</v>
+      </c>
+      <c r="T2">
+        <v>1097.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>800</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>53.3333333333333</v>
+      </c>
+      <c r="M3">
+        <v>720</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>800</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>673.33333333333303</v>
+      </c>
+      <c r="L4">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M4">
+        <v>673.33333333333303</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>5.05</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>5.05</v>
+      </c>
+      <c r="T4">
+        <v>668.28333333333296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>16000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>16000</v>
+      </c>
+      <c r="J5">
+        <v>15000</v>
+      </c>
+      <c r="K5">
+        <v>15200</v>
+      </c>
+      <c r="L5">
+        <v>1333.3333333333301</v>
+      </c>
+      <c r="M5">
+        <v>15200</v>
+      </c>
+      <c r="N5">
+        <v>1250</v>
+      </c>
+      <c r="O5">
+        <v>250</v>
+      </c>
+      <c r="P5">
+        <v>1500</v>
+      </c>
+      <c r="Q5">
+        <v>114</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1614</v>
+      </c>
+      <c r="T5">
+        <v>13586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REGISTER OF WAGES/format_input_data_book.xlsx
+++ b/REGISTER OF WAGES/format_input_data_book.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="10695" windowHeight="3885"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="10695" windowHeight="3885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>Desig.</t>
   </si>
@@ -81,9 +81,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
     <t>S.no</t>
   </si>
   <si>
@@ -144,17 +141,107 @@
     <t>Signature or Thumb Impression of Employee</t>
   </si>
   <si>
-    <t>5,8,11,15,1,19</t>
-  </si>
-  <si>
     <t>deepak</t>
+  </si>
+  <si>
+    <t>PANCHANAN BISOYI</t>
+  </si>
+  <si>
+    <t>ANAND PRAKASH</t>
+  </si>
+  <si>
+    <t>SORBASIS DAS</t>
+  </si>
+  <si>
+    <t>SHEJADI</t>
+  </si>
+  <si>
+    <t>SUDESH</t>
+  </si>
+  <si>
+    <t>SANTOSH KUMAR</t>
+  </si>
+  <si>
+    <t>SOMNATH DAS</t>
+  </si>
+  <si>
+    <t>JAYA CHHETRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATIBHAN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPIL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAY PUJAN KUMAR           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANJAY KUMAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJVENDRA SINGH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREM SINGH </t>
+  </si>
+  <si>
+    <t>BASANT JENA</t>
+  </si>
+  <si>
+    <t>RANJEETA KUMARI</t>
+  </si>
+  <si>
+    <t>RABINDRA</t>
+  </si>
+  <si>
+    <t>AYUB</t>
+  </si>
+  <si>
+    <t>MANAGER/SKILLED</t>
+  </si>
+  <si>
+    <t>ADMIN OFFICER</t>
+  </si>
+  <si>
+    <t>SKILLED</t>
+  </si>
+  <si>
+    <t>UNSKILLED</t>
+  </si>
+  <si>
+    <t>SEMI-SKILLED</t>
+  </si>
+  <si>
+    <t>OFF  ASST</t>
+  </si>
+  <si>
+    <t>25,26,31</t>
+  </si>
+  <si>
+    <t>2,19,30</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>13,31</t>
+  </si>
+  <si>
+    <t>23,31</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,21,28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +257,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,17 +280,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,17 +615,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A22" sqref="A4:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
@@ -528,47 +665,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>17000</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>9000</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6">
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>800</v>
+        <v>22000</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -580,39 +717,474 @@
         <v>17</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6">
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>800</v>
+        <v>22000</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>14850</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>14850</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>14850</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>16350</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>18000</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>14850</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="D13">
+        <v>14850</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>18000</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>14850</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>14850</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>16350</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>17000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6">
         <v>18</v>
       </c>
-      <c r="I6">
-        <v>5</v>
+      <c r="D19">
+        <v>14850</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>15500</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>15500</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -633,67 +1205,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
-      </c>
-      <c r="U1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -887,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>22</v>
